--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il10-Il10rb.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il10-Il10rb.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.790676095196317</v>
+        <v>0.8413286666666666</v>
       </c>
       <c r="H2">
-        <v>0.790676095196317</v>
+        <v>2.523986</v>
       </c>
       <c r="I2">
-        <v>0.01979676892991311</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="J2">
-        <v>0.01979676892991311</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.3849783340445</v>
+        <v>21.731807</v>
       </c>
       <c r="N2">
-        <v>21.3849783340445</v>
+        <v>65.195421</v>
       </c>
       <c r="O2">
-        <v>0.08559624681564278</v>
+        <v>0.08646812869881711</v>
       </c>
       <c r="P2">
-        <v>0.08559624681564278</v>
+        <v>0.08646812869881711</v>
       </c>
       <c r="Q2">
-        <v>16.90859116502014</v>
+        <v>18.28359220756733</v>
       </c>
       <c r="R2">
-        <v>16.90859116502014</v>
+        <v>164.552329868106</v>
       </c>
       <c r="S2">
-        <v>0.001694529119477091</v>
+        <v>0.00175357472581245</v>
       </c>
       <c r="T2">
-        <v>0.001694529119477091</v>
+        <v>0.00175357472581245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.790676095196317</v>
+        <v>0.8413286666666666</v>
       </c>
       <c r="H3">
-        <v>0.790676095196317</v>
+        <v>2.523986</v>
       </c>
       <c r="I3">
-        <v>0.01979676892991311</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="J3">
-        <v>0.01979676892991311</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.15491476335959</v>
+        <v>9.192043666666667</v>
       </c>
       <c r="N3">
-        <v>9.15491476335959</v>
+        <v>27.576131</v>
       </c>
       <c r="O3">
-        <v>0.03664377543058719</v>
+        <v>0.03657398645103373</v>
       </c>
       <c r="P3">
-        <v>0.03664377543058719</v>
+        <v>0.03657398645103373</v>
       </c>
       <c r="Q3">
-        <v>7.238572256948276</v>
+        <v>7.733529842018444</v>
       </c>
       <c r="R3">
-        <v>7.238572256948276</v>
+        <v>69.601768578166</v>
       </c>
       <c r="S3">
-        <v>0.000725428354918962</v>
+        <v>0.0007417209002652689</v>
       </c>
       <c r="T3">
-        <v>0.000725428354918962</v>
+        <v>0.0007417209002652689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.790676095196317</v>
+        <v>0.8413286666666666</v>
       </c>
       <c r="H4">
-        <v>0.790676095196317</v>
+        <v>2.523986</v>
       </c>
       <c r="I4">
-        <v>0.01979676892991311</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="J4">
-        <v>0.01979676892991311</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>113.584877311568</v>
+        <v>114.357188</v>
       </c>
       <c r="N4">
-        <v>113.584877311568</v>
+        <v>343.071564</v>
       </c>
       <c r="O4">
-        <v>0.4546387207420046</v>
+        <v>0.4550128781108181</v>
       </c>
       <c r="P4">
-        <v>0.4546387207420046</v>
+        <v>0.455012878110818</v>
       </c>
       <c r="Q4">
-        <v>89.80884726606332</v>
+        <v>96.21198050378932</v>
       </c>
       <c r="R4">
-        <v>89.80884726606332</v>
+        <v>865.9078245341038</v>
       </c>
       <c r="S4">
-        <v>0.009000377701120761</v>
+        <v>0.009227666829168087</v>
       </c>
       <c r="T4">
-        <v>0.009000377701120761</v>
+        <v>0.009227666829168087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.790676095196317</v>
+        <v>0.8413286666666666</v>
       </c>
       <c r="H5">
-        <v>0.790676095196317</v>
+        <v>2.523986</v>
       </c>
       <c r="I5">
-        <v>0.01979676892991311</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="J5">
-        <v>0.01979676892991311</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.585114398935</v>
+        <v>103.824628</v>
       </c>
       <c r="N5">
-        <v>103.585114398935</v>
+        <v>311.473884</v>
       </c>
       <c r="O5">
-        <v>0.4146133271691245</v>
+        <v>0.4131051456517542</v>
       </c>
       <c r="P5">
-        <v>0.4146133271691245</v>
+        <v>0.4131051456517542</v>
       </c>
       <c r="Q5">
-        <v>81.90227377341373</v>
+        <v>87.35063584240267</v>
       </c>
       <c r="R5">
-        <v>81.90227377341373</v>
+        <v>786.155722581624</v>
       </c>
       <c r="S5">
-        <v>0.008208004233229624</v>
+        <v>0.008377777493499721</v>
       </c>
       <c r="T5">
-        <v>0.008208004233229624</v>
+        <v>0.008377777493499721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.790676095196317</v>
+        <v>0.8413286666666666</v>
       </c>
       <c r="H6">
-        <v>0.790676095196317</v>
+        <v>2.523986</v>
       </c>
       <c r="I6">
-        <v>0.01979676892991311</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="J6">
-        <v>0.01979676892991311</v>
+        <v>0.02028001244158346</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.12558262915794</v>
+        <v>2.221699</v>
       </c>
       <c r="N6">
-        <v>2.12558262915794</v>
+        <v>6.665097</v>
       </c>
       <c r="O6">
-        <v>0.008507929842640883</v>
+        <v>0.008839861087576992</v>
       </c>
       <c r="P6">
-        <v>0.008507929842640883</v>
+        <v>0.008839861087576992</v>
       </c>
       <c r="Q6">
-        <v>1.680647373239721</v>
+        <v>1.869179057404667</v>
       </c>
       <c r="R6">
-        <v>1.680647373239721</v>
+        <v>16.822611516642</v>
       </c>
       <c r="S6">
-        <v>0.0001684295211666736</v>
+        <v>0.0001792724928379309</v>
       </c>
       <c r="T6">
-        <v>0.0001684295211666736</v>
+        <v>0.0001792724928379309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.26280909357903</v>
+        <v>3.271755333333333</v>
       </c>
       <c r="H7">
-        <v>3.26280909357903</v>
+        <v>9.815265999999999</v>
       </c>
       <c r="I7">
-        <v>0.08169347483809472</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="J7">
-        <v>0.08169347483809472</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.3849783340445</v>
+        <v>21.731807</v>
       </c>
       <c r="N7">
-        <v>21.3849783340445</v>
+        <v>65.195421</v>
       </c>
       <c r="O7">
-        <v>0.08559624681564278</v>
+        <v>0.08646812869881711</v>
       </c>
       <c r="P7">
-        <v>0.08559624681564278</v>
+        <v>0.08646812869881711</v>
       </c>
       <c r="Q7">
-        <v>69.77510177431094</v>
+        <v>71.10115545522066</v>
       </c>
       <c r="R7">
-        <v>69.77510177431094</v>
+        <v>639.9103990969859</v>
       </c>
       <c r="S7">
-        <v>0.006992654835469059</v>
+        <v>0.006819293920301566</v>
       </c>
       <c r="T7">
-        <v>0.006992654835469059</v>
+        <v>0.006819293920301566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.26280909357903</v>
+        <v>3.271755333333333</v>
       </c>
       <c r="H8">
-        <v>3.26280909357903</v>
+        <v>9.815265999999999</v>
       </c>
       <c r="I8">
-        <v>0.08169347483809472</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="J8">
-        <v>0.08169347483809472</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.15491476335959</v>
+        <v>9.192043666666667</v>
       </c>
       <c r="N8">
-        <v>9.15491476335959</v>
+        <v>27.576131</v>
       </c>
       <c r="O8">
-        <v>0.03664377543058719</v>
+        <v>0.03657398645103373</v>
       </c>
       <c r="P8">
-        <v>0.03664377543058719</v>
+        <v>0.03657398645103373</v>
       </c>
       <c r="Q8">
-        <v>29.87073914083059</v>
+        <v>30.07411789064955</v>
       </c>
       <c r="R8">
-        <v>29.87073914083059</v>
+        <v>270.667061015846</v>
       </c>
       <c r="S8">
-        <v>0.002993557346111468</v>
+        <v>0.002884401075862974</v>
       </c>
       <c r="T8">
-        <v>0.002993557346111468</v>
+        <v>0.002884401075862974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.26280909357903</v>
+        <v>3.271755333333333</v>
       </c>
       <c r="H9">
-        <v>3.26280909357903</v>
+        <v>9.815265999999999</v>
       </c>
       <c r="I9">
-        <v>0.08169347483809472</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="J9">
-        <v>0.08169347483809472</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>113.584877311568</v>
+        <v>114.357188</v>
       </c>
       <c r="N9">
-        <v>113.584877311568</v>
+        <v>343.071564</v>
       </c>
       <c r="O9">
-        <v>0.4546387207420046</v>
+        <v>0.4550128781108181</v>
       </c>
       <c r="P9">
-        <v>0.4546387207420046</v>
+        <v>0.455012878110818</v>
       </c>
       <c r="Q9">
-        <v>370.6057705852425</v>
+        <v>374.1487397440026</v>
       </c>
       <c r="R9">
-        <v>370.6057705852425</v>
+        <v>3367.338657696023</v>
       </c>
       <c r="S9">
-        <v>0.03714101689336053</v>
+        <v>0.03588451143851881</v>
       </c>
       <c r="T9">
-        <v>0.03714101689336053</v>
+        <v>0.03588451143851881</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.26280909357903</v>
+        <v>3.271755333333333</v>
       </c>
       <c r="H10">
-        <v>3.26280909357903</v>
+        <v>9.815265999999999</v>
       </c>
       <c r="I10">
-        <v>0.08169347483809472</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="J10">
-        <v>0.08169347483809472</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>103.585114398935</v>
+        <v>103.824628</v>
       </c>
       <c r="N10">
-        <v>103.585114398935</v>
+        <v>311.473884</v>
       </c>
       <c r="O10">
-        <v>0.4146133271691245</v>
+        <v>0.4131051456517542</v>
       </c>
       <c r="P10">
-        <v>0.4146133271691245</v>
+        <v>0.4131051456517542</v>
       </c>
       <c r="Q10">
-        <v>337.9784532202693</v>
+        <v>339.6887803903493</v>
       </c>
       <c r="R10">
-        <v>337.9784532202693</v>
+        <v>3057.199023513144</v>
       </c>
       <c r="S10">
-        <v>0.03387120341062961</v>
+        <v>0.03257946541205578</v>
       </c>
       <c r="T10">
-        <v>0.03387120341062961</v>
+        <v>0.03257946541205578</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.26280909357903</v>
+        <v>3.271755333333333</v>
       </c>
       <c r="H11">
-        <v>3.26280909357903</v>
+        <v>9.815265999999999</v>
       </c>
       <c r="I11">
-        <v>0.08169347483809472</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="J11">
-        <v>0.08169347483809472</v>
+        <v>0.07886482595285833</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.12558262915794</v>
+        <v>2.221699</v>
       </c>
       <c r="N11">
-        <v>2.12558262915794</v>
+        <v>6.665097</v>
       </c>
       <c r="O11">
-        <v>0.008507929842640883</v>
+        <v>0.008839861087576992</v>
       </c>
       <c r="P11">
-        <v>0.008507929842640883</v>
+        <v>0.008839861087576992</v>
       </c>
       <c r="Q11">
-        <v>6.93537033157015</v>
+        <v>7.268855552311333</v>
       </c>
       <c r="R11">
-        <v>6.93537033157015</v>
+        <v>65.419699970802</v>
       </c>
       <c r="S11">
-        <v>0.0006950423525240582</v>
+        <v>0.0006971541061192044</v>
       </c>
       <c r="T11">
-        <v>0.0006950423525240582</v>
+        <v>0.0006971541061192044</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.2218042348489</v>
+        <v>16.04648966666667</v>
       </c>
       <c r="H12">
-        <v>15.2218042348489</v>
+        <v>48.139469</v>
       </c>
       <c r="I12">
-        <v>0.3811200856639737</v>
+        <v>0.3867965314590577</v>
       </c>
       <c r="J12">
-        <v>0.3811200856639737</v>
+        <v>0.3867965314590577</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.3849783340445</v>
+        <v>21.731807</v>
       </c>
       <c r="N12">
-        <v>21.3849783340445</v>
+        <v>65.195421</v>
       </c>
       <c r="O12">
-        <v>0.08559624681564278</v>
+        <v>0.08646812869881711</v>
       </c>
       <c r="P12">
-        <v>0.08559624681564278</v>
+        <v>0.08646812869881711</v>
       </c>
       <c r="Q12">
-        <v>325.5179537673105</v>
+        <v>348.7192164634943</v>
       </c>
       <c r="R12">
-        <v>325.5179537673105</v>
+        <v>3138.472948171448</v>
       </c>
       <c r="S12">
-        <v>0.0326224489188924</v>
+        <v>0.03344557226245786</v>
       </c>
       <c r="T12">
-        <v>0.0326224489188924</v>
+        <v>0.03344557226245786</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.2218042348489</v>
+        <v>16.04648966666667</v>
       </c>
       <c r="H13">
-        <v>15.2218042348489</v>
+        <v>48.139469</v>
       </c>
       <c r="I13">
-        <v>0.3811200856639737</v>
+        <v>0.3867965314590577</v>
       </c>
       <c r="J13">
-        <v>0.3811200856639737</v>
+        <v>0.3867965314590577</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.15491476335959</v>
+        <v>9.192043666666667</v>
       </c>
       <c r="N13">
-        <v>9.15491476335959</v>
+        <v>27.576131</v>
       </c>
       <c r="O13">
-        <v>0.03664377543058719</v>
+        <v>0.03657398645103373</v>
       </c>
       <c r="P13">
-        <v>0.03664377543058719</v>
+        <v>0.03657398645103373</v>
       </c>
       <c r="Q13">
-        <v>139.3543203145877</v>
+        <v>147.5000337127154</v>
       </c>
       <c r="R13">
-        <v>139.3543203145877</v>
+        <v>1327.500303414439</v>
       </c>
       <c r="S13">
-        <v>0.01396567883115681</v>
+        <v>0.01414669110089042</v>
       </c>
       <c r="T13">
-        <v>0.01396567883115681</v>
+        <v>0.01414669110089042</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.2218042348489</v>
+        <v>16.04648966666667</v>
       </c>
       <c r="H14">
-        <v>15.2218042348489</v>
+        <v>48.139469</v>
       </c>
       <c r="I14">
-        <v>0.3811200856639737</v>
+        <v>0.3867965314590577</v>
       </c>
       <c r="J14">
-        <v>0.3811200856639737</v>
+        <v>0.3867965314590577</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>113.584877311568</v>
+        <v>114.357188</v>
       </c>
       <c r="N14">
-        <v>113.584877311568</v>
+        <v>343.071564</v>
       </c>
       <c r="O14">
-        <v>0.4546387207420046</v>
+        <v>0.4550128781108181</v>
       </c>
       <c r="P14">
-        <v>0.4546387207420046</v>
+        <v>0.455012878110818</v>
       </c>
       <c r="Q14">
-        <v>1728.966766476018</v>
+        <v>1835.031435551057</v>
       </c>
       <c r="R14">
-        <v>1728.966766476018</v>
+        <v>16515.28291995951</v>
       </c>
       <c r="S14">
-        <v>0.1732719481953522</v>
+        <v>0.1759974030224674</v>
       </c>
       <c r="T14">
-        <v>0.1732719481953522</v>
+        <v>0.1759974030224674</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.2218042348489</v>
+        <v>16.04648966666667</v>
       </c>
       <c r="H15">
-        <v>15.2218042348489</v>
+        <v>48.139469</v>
       </c>
       <c r="I15">
-        <v>0.3811200856639737</v>
+        <v>0.3867965314590577</v>
       </c>
       <c r="J15">
-        <v>0.3811200856639737</v>
+        <v>0.3867965314590577</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>103.585114398935</v>
+        <v>103.824628</v>
       </c>
       <c r="N15">
-        <v>103.585114398935</v>
+        <v>311.473884</v>
       </c>
       <c r="O15">
-        <v>0.4146133271691245</v>
+        <v>0.4131051456517542</v>
       </c>
       <c r="P15">
-        <v>0.4146133271691245</v>
+        <v>0.4131051456517542</v>
       </c>
       <c r="Q15">
-        <v>1576.752333025017</v>
+        <v>1666.020820347511</v>
       </c>
       <c r="R15">
-        <v>1576.752333025017</v>
+        <v>14994.1873831276</v>
       </c>
       <c r="S15">
-        <v>0.1580174667681219</v>
+        <v>0.1597876374659873</v>
       </c>
       <c r="T15">
-        <v>0.1580174667681219</v>
+        <v>0.1597876374659873</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.2218042348489</v>
+        <v>16.04648966666667</v>
       </c>
       <c r="H16">
-        <v>15.2218042348489</v>
+        <v>48.139469</v>
       </c>
       <c r="I16">
-        <v>0.3811200856639737</v>
+        <v>0.3867965314590577</v>
       </c>
       <c r="J16">
-        <v>0.3811200856639737</v>
+        <v>0.3867965314590577</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.12558262915794</v>
+        <v>2.221699</v>
       </c>
       <c r="N16">
-        <v>2.12558262915794</v>
+        <v>6.665097</v>
       </c>
       <c r="O16">
-        <v>0.008507929842640883</v>
+        <v>0.008839861087576992</v>
       </c>
       <c r="P16">
-        <v>0.008507929842640883</v>
+        <v>0.008839861087576992</v>
       </c>
       <c r="Q16">
-        <v>32.35520266603759</v>
+        <v>35.65047004594366</v>
       </c>
       <c r="R16">
-        <v>32.35520266603759</v>
+        <v>320.854230413493</v>
       </c>
       <c r="S16">
-        <v>0.003242542950450371</v>
+        <v>0.003419227607254674</v>
       </c>
       <c r="T16">
-        <v>0.003242542950450371</v>
+        <v>0.003419227607254674</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.1639257694168</v>
+        <v>20.797757</v>
       </c>
       <c r="H17">
-        <v>20.1639257694168</v>
+        <v>62.393271</v>
       </c>
       <c r="I17">
-        <v>0.5048598049217009</v>
+        <v>0.5013246159650206</v>
       </c>
       <c r="J17">
-        <v>0.5048598049217009</v>
+        <v>0.5013246159650205</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.3849783340445</v>
+        <v>21.731807</v>
       </c>
       <c r="N17">
-        <v>21.3849783340445</v>
+        <v>65.195421</v>
       </c>
       <c r="O17">
-        <v>0.08559624681564278</v>
+        <v>0.08646812869881711</v>
       </c>
       <c r="P17">
-        <v>0.08559624681564278</v>
+        <v>0.08646812869881711</v>
       </c>
       <c r="Q17">
-        <v>431.2051157082598</v>
+        <v>451.972841156899</v>
       </c>
       <c r="R17">
-        <v>431.2051157082598</v>
+        <v>4067.75557041209</v>
       </c>
       <c r="S17">
-        <v>0.04321410446937517</v>
+        <v>0.04334860141314847</v>
       </c>
       <c r="T17">
-        <v>0.04321410446937517</v>
+        <v>0.04334860141314845</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.1639257694168</v>
+        <v>20.797757</v>
       </c>
       <c r="H18">
-        <v>20.1639257694168</v>
+        <v>62.393271</v>
       </c>
       <c r="I18">
-        <v>0.5048598049217009</v>
+        <v>0.5013246159650206</v>
       </c>
       <c r="J18">
-        <v>0.5048598049217009</v>
+        <v>0.5013246159650205</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.15491476335959</v>
+        <v>9.192043666666667</v>
       </c>
       <c r="N18">
-        <v>9.15491476335959</v>
+        <v>27.576131</v>
       </c>
       <c r="O18">
-        <v>0.03664377543058719</v>
+        <v>0.03657398645103373</v>
       </c>
       <c r="P18">
-        <v>0.03664377543058719</v>
+        <v>0.03657398645103373</v>
       </c>
       <c r="Q18">
-        <v>184.5990217137208</v>
+        <v>191.1738905127224</v>
       </c>
       <c r="R18">
-        <v>184.5990217137208</v>
+        <v>1720.565014614501</v>
       </c>
       <c r="S18">
-        <v>0.01849996931548087</v>
+        <v>0.01833543971187436</v>
       </c>
       <c r="T18">
-        <v>0.01849996931548087</v>
+        <v>0.01833543971187435</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.1639257694168</v>
+        <v>20.797757</v>
       </c>
       <c r="H19">
-        <v>20.1639257694168</v>
+        <v>62.393271</v>
       </c>
       <c r="I19">
-        <v>0.5048598049217009</v>
+        <v>0.5013246159650206</v>
       </c>
       <c r="J19">
-        <v>0.5048598049217009</v>
+        <v>0.5013246159650205</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>113.584877311568</v>
+        <v>114.357188</v>
       </c>
       <c r="N19">
-        <v>113.584877311568</v>
+        <v>343.071564</v>
       </c>
       <c r="O19">
-        <v>0.4546387207420046</v>
+        <v>0.4550128781108181</v>
       </c>
       <c r="P19">
-        <v>0.4546387207420046</v>
+        <v>0.455012878110818</v>
       </c>
       <c r="Q19">
-        <v>2290.317034638771</v>
+        <v>2378.373007227316</v>
       </c>
       <c r="R19">
-        <v>2290.317034638771</v>
+        <v>21405.35706504584</v>
       </c>
       <c r="S19">
-        <v>0.2295288158636601</v>
+        <v>0.2281091563780446</v>
       </c>
       <c r="T19">
-        <v>0.2295288158636601</v>
+        <v>0.2281091563780445</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.1639257694168</v>
+        <v>20.797757</v>
       </c>
       <c r="H20">
-        <v>20.1639257694168</v>
+        <v>62.393271</v>
       </c>
       <c r="I20">
-        <v>0.5048598049217009</v>
+        <v>0.5013246159650206</v>
       </c>
       <c r="J20">
-        <v>0.5048598049217009</v>
+        <v>0.5013246159650205</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>103.585114398935</v>
+        <v>103.824628</v>
       </c>
       <c r="N20">
-        <v>103.585114398935</v>
+        <v>311.473884</v>
       </c>
       <c r="O20">
-        <v>0.4146133271691245</v>
+        <v>0.4131051456517542</v>
       </c>
       <c r="P20">
-        <v>0.4146133271691245</v>
+        <v>0.4131051456517542</v>
       </c>
       <c r="Q20">
-        <v>2088.682557556673</v>
+        <v>2159.319383759396</v>
       </c>
       <c r="R20">
-        <v>2088.682557556673</v>
+        <v>19433.87445383456</v>
       </c>
       <c r="S20">
-        <v>0.2093216034725416</v>
+        <v>0.2070997784970396</v>
       </c>
       <c r="T20">
-        <v>0.2093216034725416</v>
+        <v>0.2070997784970395</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.1639257694168</v>
+        <v>20.797757</v>
       </c>
       <c r="H21">
-        <v>20.1639257694168</v>
+        <v>62.393271</v>
       </c>
       <c r="I21">
-        <v>0.5048598049217009</v>
+        <v>0.5013246159650206</v>
       </c>
       <c r="J21">
-        <v>0.5048598049217009</v>
+        <v>0.5013246159650205</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.12558262915794</v>
+        <v>2.221699</v>
       </c>
       <c r="N21">
-        <v>2.12558262915794</v>
+        <v>6.665097</v>
       </c>
       <c r="O21">
-        <v>0.008507929842640883</v>
+        <v>0.008839861087576992</v>
       </c>
       <c r="P21">
-        <v>0.008507929842640883</v>
+        <v>0.008839861087576992</v>
       </c>
       <c r="Q21">
-        <v>42.8600903511025</v>
+        <v>46.206355929143</v>
       </c>
       <c r="R21">
-        <v>42.8600903511025</v>
+        <v>415.857203362287</v>
       </c>
       <c r="S21">
-        <v>0.004295311800643194</v>
+        <v>0.004431639964913665</v>
       </c>
       <c r="T21">
-        <v>0.004295311800643194</v>
+        <v>0.004431639964913664</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.500438494667434</v>
+        <v>0.5282783333333333</v>
       </c>
       <c r="H22">
-        <v>0.500438494667434</v>
+        <v>1.584835</v>
       </c>
       <c r="I22">
-        <v>0.01252986564631743</v>
+        <v>0.01273401418147998</v>
       </c>
       <c r="J22">
-        <v>0.01252986564631743</v>
+        <v>0.01273401418147998</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.3849783340445</v>
+        <v>21.731807</v>
       </c>
       <c r="N22">
-        <v>21.3849783340445</v>
+        <v>65.195421</v>
       </c>
       <c r="O22">
-        <v>0.08559624681564278</v>
+        <v>0.08646812869881711</v>
       </c>
       <c r="P22">
-        <v>0.08559624681564278</v>
+        <v>0.08646812869881711</v>
       </c>
       <c r="Q22">
-        <v>10.70186636598492</v>
+        <v>11.48044278228167</v>
       </c>
       <c r="R22">
-        <v>10.70186636598492</v>
+        <v>103.323985040535</v>
       </c>
       <c r="S22">
-        <v>0.00107250947242903</v>
+        <v>0.001101086377096773</v>
       </c>
       <c r="T22">
-        <v>0.00107250947242903</v>
+        <v>0.001101086377096773</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.500438494667434</v>
+        <v>0.5282783333333333</v>
       </c>
       <c r="H23">
-        <v>0.500438494667434</v>
+        <v>1.584835</v>
       </c>
       <c r="I23">
-        <v>0.01252986564631743</v>
+        <v>0.01273401418147998</v>
       </c>
       <c r="J23">
-        <v>0.01252986564631743</v>
+        <v>0.01273401418147998</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.15491476335959</v>
+        <v>9.192043666666667</v>
       </c>
       <c r="N23">
-        <v>9.15491476335959</v>
+        <v>27.576131</v>
       </c>
       <c r="O23">
-        <v>0.03664377543058719</v>
+        <v>0.03657398645103373</v>
       </c>
       <c r="P23">
-        <v>0.03664377543058719</v>
+        <v>0.03657398645103373</v>
       </c>
       <c r="Q23">
-        <v>4.581471762984341</v>
+        <v>4.855957508153889</v>
       </c>
       <c r="R23">
-        <v>4.581471762984341</v>
+        <v>43.703617573385</v>
       </c>
       <c r="S23">
-        <v>0.0004591415829190853</v>
+        <v>0.0004657336621407201</v>
       </c>
       <c r="T23">
-        <v>0.0004591415829190853</v>
+        <v>0.0004657336621407201</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.500438494667434</v>
+        <v>0.5282783333333333</v>
       </c>
       <c r="H24">
-        <v>0.500438494667434</v>
+        <v>1.584835</v>
       </c>
       <c r="I24">
-        <v>0.01252986564631743</v>
+        <v>0.01273401418147998</v>
       </c>
       <c r="J24">
-        <v>0.01252986564631743</v>
+        <v>0.01273401418147998</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>113.584877311568</v>
+        <v>114.357188</v>
       </c>
       <c r="N24">
-        <v>113.584877311568</v>
+        <v>343.071564</v>
       </c>
       <c r="O24">
-        <v>0.4546387207420046</v>
+        <v>0.4550128781108181</v>
       </c>
       <c r="P24">
-        <v>0.4546387207420046</v>
+        <v>0.455012878110818</v>
       </c>
       <c r="Q24">
-        <v>56.84224501878626</v>
+        <v>60.41242468132666</v>
       </c>
       <c r="R24">
-        <v>56.84224501878626</v>
+        <v>543.7118221319399</v>
       </c>
       <c r="S24">
-        <v>0.005696562088510949</v>
+        <v>0.005794140442619178</v>
       </c>
       <c r="T24">
-        <v>0.005696562088510949</v>
+        <v>0.005794140442619177</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.500438494667434</v>
+        <v>0.5282783333333333</v>
       </c>
       <c r="H25">
-        <v>0.500438494667434</v>
+        <v>1.584835</v>
       </c>
       <c r="I25">
-        <v>0.01252986564631743</v>
+        <v>0.01273401418147998</v>
       </c>
       <c r="J25">
-        <v>0.01252986564631743</v>
+        <v>0.01273401418147998</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>103.585114398935</v>
+        <v>103.824628</v>
       </c>
       <c r="N25">
-        <v>103.585114398935</v>
+        <v>311.473884</v>
       </c>
       <c r="O25">
-        <v>0.4146133271691245</v>
+        <v>0.4131051456517542</v>
       </c>
       <c r="P25">
-        <v>0.4146133271691245</v>
+        <v>0.4131051456517542</v>
       </c>
       <c r="Q25">
-        <v>51.83797871975697</v>
+        <v>54.84830143879333</v>
       </c>
       <c r="R25">
-        <v>51.83797871975697</v>
+        <v>493.63471294914</v>
       </c>
       <c r="S25">
-        <v>0.005195049284601784</v>
+        <v>0.005260486783171789</v>
       </c>
       <c r="T25">
-        <v>0.005195049284601784</v>
+        <v>0.005260486783171789</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.500438494667434</v>
+        <v>0.5282783333333333</v>
       </c>
       <c r="H26">
-        <v>0.500438494667434</v>
+        <v>1.584835</v>
       </c>
       <c r="I26">
-        <v>0.01252986564631743</v>
+        <v>0.01273401418147998</v>
       </c>
       <c r="J26">
-        <v>0.01252986564631743</v>
+        <v>0.01273401418147998</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.12558262915794</v>
+        <v>2.221699</v>
       </c>
       <c r="N26">
-        <v>2.12558262915794</v>
+        <v>6.665097</v>
       </c>
       <c r="O26">
-        <v>0.008507929842640883</v>
+        <v>0.008839861087576992</v>
       </c>
       <c r="P26">
-        <v>0.008507929842640883</v>
+        <v>0.008839861087576992</v>
       </c>
       <c r="Q26">
-        <v>1.063723371227046</v>
+        <v>1.173675444888333</v>
       </c>
       <c r="R26">
-        <v>1.063723371227046</v>
+        <v>10.563079003995</v>
       </c>
       <c r="S26">
-        <v>0.0001066032178565849</v>
+        <v>0.0001125669164515184</v>
       </c>
       <c r="T26">
-        <v>0.0001066032178565849</v>
+        <v>0.0001125669164515184</v>
       </c>
     </row>
   </sheetData>
